--- a/data/trans_camb/P34A_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-24,8; -13,43</t>
+          <t>-24,34; -12,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,27; -3,24</t>
+          <t>-15,7; -3,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,77; -1,62</t>
+          <t>-13,9; -2,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,53; -7,87</t>
+          <t>-23,1; -8,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,73; -0,43</t>
+          <t>-16,47; -1,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,38; -7,09</t>
+          <t>-20,78; -7,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-22,03; -13,3</t>
+          <t>-22,08; -12,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,01; -4,49</t>
+          <t>-13,11; -4,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-14,9; -6,13</t>
+          <t>-15,15; -6,17</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-65,89; -42,4</t>
+          <t>-64,87; -40,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-40,66; -8,92</t>
+          <t>-41,9; -10,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,24; -5,14</t>
+          <t>-36,64; -6,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-55,98; -23,39</t>
+          <t>-56,93; -24,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-39,14; -1,3</t>
+          <t>-39,85; -3,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,33; -21,65</t>
+          <t>-50,03; -21,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-58,18; -39,34</t>
+          <t>-58,1; -38,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,67; -13,36</t>
+          <t>-34,76; -12,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-38,33; -18,26</t>
+          <t>-39,1; -18,46</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,88; -5,64</t>
+          <t>-18,57; -5,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 3,04</t>
+          <t>-10,93; 2,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 1,48</t>
+          <t>-10,95; 1,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,76; -10,01</t>
+          <t>-24,31; -9,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,56; -3,03</t>
+          <t>-18,14; -3,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,61; -3,22</t>
+          <t>-16,62; -3,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-20,06; -10,19</t>
+          <t>-19,87; -10,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,58; -2,6</t>
+          <t>-12,81; -2,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,4; -2,98</t>
+          <t>-12,02; -2,85</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-53,73; -21,35</t>
+          <t>-55,75; -22,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,25; 11,67</t>
+          <t>-32,81; 8,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,2; 5,52</t>
+          <t>-32,4; 5,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-51,82; -25,34</t>
+          <t>-52,95; -24,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,18; -8,35</t>
+          <t>-39,61; -8,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,5; -7,92</t>
+          <t>-35,65; -8,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-50,96; -29,78</t>
+          <t>-50,79; -29,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,85; -7,66</t>
+          <t>-32,68; -7,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-31,58; -8,87</t>
+          <t>-31,0; -8,72</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-26,97; -15,56</t>
+          <t>-26,58; -15,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,96; -3,53</t>
+          <t>-15,68; -3,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-38,8; -6,76</t>
+          <t>-39,3; -7,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,01; -1,06</t>
+          <t>-22,49; -2,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 7,09</t>
+          <t>-16,0; 6,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 3,45</t>
+          <t>-15,85; 4,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-22,81; -13,05</t>
+          <t>-22,95; -12,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-13,89; -2,97</t>
+          <t>-13,61; -2,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-35,74; -6,01</t>
+          <t>-34,59; -6,45</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-54,38; -35,59</t>
+          <t>-54,16; -35,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,99; -7,75</t>
+          <t>-31,81; -7,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-79,39; -14,81</t>
+          <t>-80,79; -15,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,02; -2,89</t>
+          <t>-42,42; -6,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,0; 17,08</t>
+          <t>-31,3; 16,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,26; 8,31</t>
+          <t>-29,4; 12,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-46,37; -30,16</t>
+          <t>-46,95; -29,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-28,02; -6,72</t>
+          <t>-28,39; -6,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-74,44; -13,27</t>
+          <t>-73,84; -14,16</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-25,41; -17,68</t>
+          <t>-25,77; -17,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,68; -4,22</t>
+          <t>-12,34; -4,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,09; -4,62</t>
+          <t>-12,74; -4,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-21,96; -12,14</t>
+          <t>-21,95; -11,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 0,22</t>
+          <t>-9,45; 0,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-33,21; -6,14</t>
+          <t>-31,78; -6,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-22,85; -16,42</t>
+          <t>-22,85; -16,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,97; -3,63</t>
+          <t>-10,13; -3,81</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-24,01; -7,02</t>
+          <t>-23,86; -7,04</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-52,46; -39,43</t>
+          <t>-52,55; -39,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-25,62; -9,32</t>
+          <t>-25,48; -9,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,78; -10,23</t>
+          <t>-26,09; -9,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-43,74; -26,63</t>
+          <t>-44,1; -26,45</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,95; 0,63</t>
+          <t>-19,53; 0,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-68,01; -13,26</t>
+          <t>-64,8; -13,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-46,72; -36,13</t>
+          <t>-46,65; -35,99</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-20,45; -8,15</t>
+          <t>-20,57; -8,42</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-49,92; -15,21</t>
+          <t>-49,61; -15,18</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-29,05; -15,72</t>
+          <t>-29,46; -15,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-16,85; -3,84</t>
+          <t>-17,64; -3,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-15,06; -0,29</t>
+          <t>-15,3; -0,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-22,61; -11,47</t>
+          <t>-22,75; -11,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 0,34</t>
+          <t>-11,62; -0,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-19,88; -0,44</t>
+          <t>-19,82; -1,29</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-23,72; -14,95</t>
+          <t>-23,91; -15,05</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-12,53; -3,37</t>
+          <t>-12,68; -3,74</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-16,03; -2,61</t>
+          <t>-15,69; -2,77</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-53,04; -33,11</t>
+          <t>-54,42; -33,81</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-30,64; -8,32</t>
+          <t>-31,78; -6,69</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-27,62; -0,6</t>
+          <t>-27,86; -1,7</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-40,33; -22,63</t>
+          <t>-40,15; -22,64</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 0,69</t>
+          <t>-20,61; -0,93</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-36,4; -1,23</t>
+          <t>-35,64; -2,44</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-42,93; -29,48</t>
+          <t>-43,49; -29,94</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-22,46; -6,94</t>
+          <t>-22,91; -7,38</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-29,58; -5,26</t>
+          <t>-29,04; -5,63</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-13,29; -1,28</t>
+          <t>-13,55; -0,91</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 4,81</t>
+          <t>-7,88; 5,21</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 7,4</t>
+          <t>-13,54; 5,69</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-18,43; -10,89</t>
+          <t>-18,35; -10,31</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 7,16</t>
+          <t>-1,73; 6,61</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 8,37</t>
+          <t>-0,24; 8,37</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-16,8; -9,63</t>
+          <t>-16,67; -9,61</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 5,23</t>
+          <t>-2,41; 5,13</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 4,87</t>
+          <t>-4,09; 4,78</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-59,68; -6,39</t>
+          <t>-61,25; -5,46</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-35,34; 31,52</t>
+          <t>-35,57; 33,85</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-63,85; 50,15</t>
+          <t>-66,76; 35,45</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-39,78; -25,26</t>
+          <t>-39,48; -23,85</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 16,26</t>
+          <t>-3,66; 15,47</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 19,23</t>
+          <t>-0,53; 19,38</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-39,85; -24,73</t>
+          <t>-40,39; -25,06</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 13,8</t>
+          <t>-5,7; 13,46</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 12,28</t>
+          <t>-9,64; 12,48</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-20,89; -16,3</t>
+          <t>-20,86; -16,26</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,51; -4,62</t>
+          <t>-9,63; -4,88</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-18,52; -6,72</t>
+          <t>-17,17; -6,81</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-17,43; -12,82</t>
+          <t>-17,31; -12,53</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,9; -0,96</t>
+          <t>-5,86; -0,95</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-15,29; -4,41</t>
+          <t>-14,64; -4,25</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-18,33; -15,07</t>
+          <t>-18,52; -15,2</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,97; -3,55</t>
+          <t>-6,99; -3,58</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-13,94; -6,18</t>
+          <t>-13,75; -6,28</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-49,42; -40,84</t>
+          <t>-49,63; -40,87</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-22,64; -11,89</t>
+          <t>-22,8; -12,31</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-43,99; -16,56</t>
+          <t>-41,81; -16,85</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-37,03; -28,36</t>
+          <t>-36,74; -28,07</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-12,38; -2,12</t>
+          <t>-12,42; -2,15</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-33,71; -9,73</t>
+          <t>-32,0; -9,7</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-41,47; -35,53</t>
+          <t>-41,73; -35,62</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-15,71; -8,3</t>
+          <t>-15,71; -8,41</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-31,58; -14,54</t>
+          <t>-31,26; -14,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P34A_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
